--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -223,7 +223,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2001</t>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBAE8BB-EBA2-4EDB-98BA-5138730D40DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C207B-2DA6-4596-A7AF-1DA78A1A8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>creationDate</t>
   </si>
@@ -648,8 +648,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1015,8 +1015,11 @@
       <c r="AG2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AJ2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AN2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>82</v>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C207B-2DA6-4596-A7AF-1DA78A1A8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382E328-B326-480D-A9AF-4480AE31F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382E328-B326-480D-A9AF-4480AE31F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094BE20-DAF9-400E-AC9D-036F9A56BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094BE20-DAF9-400E-AC9D-036F9A56BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A6C7F-68D4-4B6B-9427-51AC9D58BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>creationDate</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:BR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -935,7 +938,7 @@
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>68</v>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9A6C7F-68D4-4B6B-9427-51AC9D58BD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D872B7-BB15-4835-8814-031F90A74CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -932,13 +932,13 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>68</v>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D872B7-BB15-4835-8814-031F90A74CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACECBB-3431-48FA-BC37-F13213EE3BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -655,73 +655,73 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="19" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="21" style="1" customWidth="1"/>
-    <col min="27" max="28" width="20.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.44140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.33203125" style="1" customWidth="1"/>
-    <col min="31" max="34" width="6.77734375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.33203125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.21875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.77734375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.33203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="20.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.28515625" style="1" customWidth="1"/>
+    <col min="31" max="34" width="6.7109375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.5703125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.33203125" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.88671875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.28515625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="23.85546875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.7109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9.77734375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="7.21875" style="1" customWidth="1"/>
-    <col min="58" max="58" width="8.21875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="7.28515625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="1" customWidth="1"/>
     <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="7.88671875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.44140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="11.21875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.77734375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4.77734375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="12.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.77734375" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="14.44140625" style="1"/>
+    <col min="60" max="60" width="12.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.85546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.28515625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="12.85546875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACECBB-3431-48FA-BC37-F13213EE3BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C98AD2-A4FD-4486-B02E-13C9ACB3398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C98AD2-A4FD-4486-B02E-13C9ACB3398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9538D7DA-E07C-4302-A12D-197A4430D823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -352,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548943C5-6B31-4C7D-AD12-35F91CCA7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AAE80-05E8-4B54-BD60-56A6690241D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -352,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AAE80-05E8-4B54-BD60-56A6690241D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856490E1-09D8-41D7-BA0A-95347B5AD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>creationDate</t>
   </si>
@@ -282,7 +282,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BR1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2:BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -932,7 +938,7 @@
     </row>
     <row r="2" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -1026,6 +1032,12 @@
       </c>
       <c r="BC2" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>83</v>

--- a/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 18/Auto_GeStamp_TSCD_TC18_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856490E1-09D8-41D7-BA0A-95347B5AD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E09D0E-4FB6-47B6-A806-436CA678FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
